--- a/db/db-challenge2/DB課題データベース定義書.xlsx
+++ b/db/db-challenge2/DB課題データベース定義書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="271" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB433745-1D9F-464C-839F-6627A3882ED2}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9827008C-32B8-4FEB-973E-0DFFCF6E00AA}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
     <sheet name="users" sheetId="2" r:id="rId3"/>
     <sheet name="participants" sheetId="4" r:id="rId4"/>
-    <sheet name="chatrooms" sheetId="5" r:id="rId5"/>
+    <sheet name="chat_rooms" sheetId="5" r:id="rId5"/>
     <sheet name="posts" sheetId="6" r:id="rId6"/>
     <sheet name="tasks" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="129">
   <si>
     <t>改定履歴</t>
   </si>
@@ -647,7 +647,7 @@
     <t>論理削除フラグ</t>
   </si>
   <si>
-    <t>is_deleated</t>
+    <t>is_deleted</t>
   </si>
   <si>
     <t>作成日時</t>
@@ -692,7 +692,7 @@
     <t>joined_at</t>
   </si>
   <si>
-    <t>chatrooms</t>
+    <t>chat_rooms</t>
   </si>
   <si>
     <t>チャットルーム関する情報を保持するテーブル</t>
@@ -716,7 +716,7 @@
     <t>ファイル送信可否フラグ</t>
   </si>
   <si>
-    <t>file_send_flg</t>
+    <t>is_enabled_file_sent</t>
   </si>
   <si>
     <t>1:送信許可</t>
@@ -725,7 +725,7 @@
     <t>ダイレクトチャット判定フラグ</t>
   </si>
   <si>
-    <t>direct_chat_flg</t>
+    <t>is_enabled_direct_chat</t>
   </si>
   <si>
     <t>1:ダイレクトチャット</t>
@@ -770,6 +770,15 @@
     <t>attachment_file_name</t>
   </si>
   <si>
+    <t>chat_room_id</t>
+  </si>
+  <si>
+    <t>投稿者ID</t>
+  </si>
+  <si>
+    <t>posted_user_id</t>
+  </si>
+  <si>
     <t>投稿日時</t>
   </si>
   <si>
@@ -777,12 +786,6 @@
   </si>
   <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>投稿者ID</t>
-  </si>
-  <si>
-    <t>posted_user_id</t>
   </si>
   <si>
     <t>tasks</t>
@@ -803,7 +806,7 @@
     <t>タスク担当者ID</t>
   </si>
   <si>
-    <t>person_user_id</t>
+    <t>assingned_user_id</t>
   </si>
   <si>
     <t>期限</t>
@@ -815,7 +818,7 @@
     <t>タスク完了フラグ</t>
   </si>
   <si>
-    <t>done_flg</t>
+    <t>is_done</t>
   </si>
   <si>
     <t>1:タスク完了</t>
@@ -30543,7 +30546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31135,11 +31138,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31147,7 +31150,7 @@
     <col min="1" max="1" width="14.42578125" style="25"/>
     <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="22" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="25" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="25"/>
     <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
@@ -31416,22 +31419,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="32"/>
@@ -31440,74 +31445,98 @@
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31526,11 +31555,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F13"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31741,28 +31770,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:11" s="32" customFormat="1">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="13"/>
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11">
@@ -31772,21 +31802,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="I10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
@@ -31796,10 +31828,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>54</v>
@@ -31815,57 +31847,90 @@
       <c r="J11" s="13"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:11" s="32" customFormat="1">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="28"/>
+        <v>116</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="13"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:11" s="32" customFormat="1">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="13"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31884,11 +31949,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31912,7 +31977,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -31929,7 +31994,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -31946,7 +32011,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -31998,7 +32063,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>53</v>
@@ -32026,7 +32091,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>108</v>
@@ -32052,10 +32117,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>54</v>
@@ -32078,10 +32143,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>40</v>
@@ -32100,10 +32165,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>36</v>
@@ -32120,7 +32185,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -32153,28 +32218,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:11" s="32" customFormat="1">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="13"/>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
@@ -32184,21 +32250,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11">
@@ -32208,10 +32276,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>54</v>
@@ -32227,30 +32295,28 @@
       <c r="J13" s="13"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="13"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
@@ -32260,24 +32326,48 @@
         <v>11</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="13"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
